--- a/dataanalysis/data/predictions/1400/08181434_1437.xlsx
+++ b/dataanalysis/data/predictions/1400/08181434_1437.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="218">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-18</t>
   </si>
   <si>
@@ -665,12 +668,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH122"/>
+  <dimension ref="A1:AI122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,19 +1134,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300033</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>9.880000000000001</v>
@@ -1167,7 +1167,7 @@
         <v>1124750.13</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1208,8 +1208,23 @@
       <c r="W2">
         <v>0.15</v>
       </c>
+      <c r="X2">
+        <v>-3.86</v>
+      </c>
+      <c r="Y2">
+        <v>404.99</v>
+      </c>
+      <c r="Z2">
+        <v>0.38</v>
+      </c>
       <c r="AC2" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1217,22 +1232,25 @@
       <c r="AG2">
         <v>-22.73137092590332</v>
       </c>
-      <c r="AH2" t="s">
-        <v>217</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300066</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4.82</v>
@@ -1250,7 +1268,7 @@
         <v>96888.06</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1291,8 +1309,23 @@
       <c r="W3">
         <v>0.63</v>
       </c>
+      <c r="X3">
+        <v>-1.26</v>
+      </c>
+      <c r="Y3">
+        <v>7.34</v>
+      </c>
+      <c r="Z3">
+        <v>2.23</v>
+      </c>
       <c r="AC3" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1300,22 +1333,25 @@
       <c r="AG3">
         <v>1.28999137878418</v>
       </c>
-      <c r="AH3" t="s">
-        <v>217</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300145</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1333,7 +1369,7 @@
         <v>197094.75</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1374,8 +1410,23 @@
       <c r="W4">
         <v>-1.05</v>
       </c>
+      <c r="X4">
+        <v>-5.31</v>
+      </c>
+      <c r="Y4">
+        <v>5.61</v>
+      </c>
+      <c r="Z4">
+        <v>2.75</v>
+      </c>
       <c r="AC4" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1383,22 +1434,25 @@
       <c r="AG4">
         <v>2.81800389289856</v>
       </c>
-      <c r="AH4" t="s">
-        <v>217</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300188</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-0.16</v>
@@ -1416,7 +1470,7 @@
         <v>178150.11</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1457,8 +1511,23 @@
       <c r="W5">
         <v>0.34</v>
       </c>
+      <c r="X5">
+        <v>-1.38</v>
+      </c>
+      <c r="Y5">
+        <v>19.19</v>
+      </c>
+      <c r="Z5">
+        <v>1.97</v>
+      </c>
       <c r="AC5" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1466,22 +1535,25 @@
       <c r="AG5">
         <v>4.581207752227783</v>
       </c>
-      <c r="AH5" t="s">
-        <v>217</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300196</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2.71</v>
@@ -1499,7 +1571,7 @@
         <v>54680.01</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1540,8 +1612,23 @@
       <c r="W6">
         <v>0.54</v>
       </c>
+      <c r="X6">
+        <v>-3.14</v>
+      </c>
+      <c r="Y6">
+        <v>16.9</v>
+      </c>
+      <c r="Z6">
+        <v>-0.82</v>
+      </c>
       <c r="AC6" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1549,22 +1636,25 @@
       <c r="AG6">
         <v>6.160263538360596</v>
       </c>
-      <c r="AH6" t="s">
-        <v>217</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300199</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>13.81</v>
@@ -1582,7 +1672,7 @@
         <v>464066.36</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -1623,8 +1713,23 @@
       <c r="W7">
         <v>-0.25</v>
       </c>
+      <c r="X7">
+        <v>-2.17</v>
+      </c>
+      <c r="Y7">
+        <v>30.67</v>
+      </c>
+      <c r="Z7">
+        <v>3.41</v>
+      </c>
       <c r="AC7" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1632,22 +1737,25 @@
       <c r="AG7">
         <v>3.485237598419189</v>
       </c>
-      <c r="AH7" t="s">
-        <v>217</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300213</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.74</v>
@@ -1665,7 +1773,7 @@
         <v>86774.25</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1706,8 +1814,23 @@
       <c r="W8">
         <v>-0.7</v>
       </c>
+      <c r="X8">
+        <v>0.92</v>
+      </c>
+      <c r="Y8">
+        <v>11.09</v>
+      </c>
+      <c r="Z8">
+        <v>3.45</v>
+      </c>
       <c r="AC8" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1715,22 +1838,25 @@
       <c r="AG8">
         <v>6.304689407348633</v>
       </c>
-      <c r="AH8" t="s">
-        <v>217</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300214</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1748,7 +1874,7 @@
         <v>42778.21</v>
       </c>
       <c r="J9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1789,8 +1915,23 @@
       <c r="W9">
         <v>-0.03</v>
       </c>
+      <c r="X9">
+        <v>-4.66</v>
+      </c>
+      <c r="Y9">
+        <v>8.44</v>
+      </c>
+      <c r="Z9">
+        <v>0.12</v>
+      </c>
       <c r="AC9" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1798,22 +1939,25 @@
       <c r="AG9">
         <v>3.403817653656006</v>
       </c>
-      <c r="AH9" t="s">
-        <v>217</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300218</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2.81</v>
@@ -1831,7 +1975,7 @@
         <v>47037.67</v>
       </c>
       <c r="J10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1872,8 +2016,23 @@
       <c r="W10">
         <v>0.51</v>
       </c>
+      <c r="X10">
+        <v>0.35</v>
+      </c>
+      <c r="Y10">
+        <v>23.08</v>
+      </c>
+      <c r="Z10">
+        <v>1.67</v>
+      </c>
       <c r="AC10" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1881,22 +2040,25 @@
       <c r="AG10">
         <v>2.96663761138916</v>
       </c>
-      <c r="AH10" t="s">
-        <v>217</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300224</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.43</v>
@@ -1914,7 +2076,7 @@
         <v>199647.1</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1955,8 +2117,23 @@
       <c r="W11">
         <v>-0.08</v>
       </c>
+      <c r="X11">
+        <v>-2.71</v>
+      </c>
+      <c r="Y11">
+        <v>19.45</v>
+      </c>
+      <c r="Z11">
+        <v>2.37</v>
+      </c>
       <c r="AC11" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1964,22 +2141,25 @@
       <c r="AG11">
         <v>17.6904411315918</v>
       </c>
-      <c r="AH11" t="s">
-        <v>217</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300252</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>10.62</v>
@@ -1997,7 +2177,7 @@
         <v>136740.56</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2038,8 +2218,23 @@
       <c r="W12">
         <v>0.77</v>
       </c>
+      <c r="X12">
+        <v>0.85</v>
+      </c>
+      <c r="Y12">
+        <v>14.73</v>
+      </c>
+      <c r="Z12">
+        <v>5.52</v>
+      </c>
       <c r="AC12" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2047,22 +2242,25 @@
       <c r="AG12">
         <v>5.938394069671631</v>
       </c>
-      <c r="AH12" t="s">
-        <v>217</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300300</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.8</v>
@@ -2080,7 +2278,7 @@
         <v>56417.4</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -2121,8 +2319,23 @@
       <c r="W13">
         <v>-1.59</v>
       </c>
+      <c r="X13">
+        <v>3.39</v>
+      </c>
+      <c r="Y13">
+        <v>6.52</v>
+      </c>
+      <c r="Z13">
+        <v>10.32</v>
+      </c>
       <c r="AC13" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2130,22 +2343,25 @@
       <c r="AG13">
         <v>-0.05244448781013489</v>
       </c>
-      <c r="AH13" t="s">
-        <v>217</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300304</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-2.69</v>
@@ -2163,7 +2379,7 @@
         <v>58041.16</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2204,8 +2420,23 @@
       <c r="W14">
         <v>-1.05</v>
       </c>
+      <c r="X14">
+        <v>1.5</v>
+      </c>
+      <c r="Y14">
+        <v>13.16</v>
+      </c>
+      <c r="Z14">
+        <v>4.11</v>
+      </c>
       <c r="AC14" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2213,22 +2444,25 @@
       <c r="AG14">
         <v>3.814550638198853</v>
       </c>
-      <c r="AH14" t="s">
-        <v>217</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300322</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>2.46</v>
@@ -2246,7 +2480,7 @@
         <v>333745.87</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K15">
         <v>16</v>
@@ -2287,8 +2521,23 @@
       <c r="W15">
         <v>-1.13</v>
       </c>
+      <c r="X15">
+        <v>-9.09</v>
+      </c>
+      <c r="Y15">
+        <v>27.61</v>
+      </c>
+      <c r="Z15">
+        <v>-1.04</v>
+      </c>
       <c r="AC15" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2296,22 +2545,25 @@
       <c r="AG15">
         <v>12.49740982055664</v>
       </c>
-      <c r="AH15" t="s">
-        <v>217</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300368</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.98</v>
@@ -2329,7 +2581,7 @@
         <v>245343.92</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2370,8 +2622,23 @@
       <c r="W16">
         <v>-2.45</v>
       </c>
+      <c r="X16">
+        <v>-2.86</v>
+      </c>
+      <c r="Y16">
+        <v>17.63</v>
+      </c>
+      <c r="Z16">
+        <v>3.52</v>
+      </c>
       <c r="AC16" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2379,22 +2646,25 @@
       <c r="AG16">
         <v>-9.930778503417969</v>
       </c>
-      <c r="AH16" t="s">
-        <v>217</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300398</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>5.49</v>
@@ -2412,7 +2682,7 @@
         <v>218952.45</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2453,8 +2723,23 @@
       <c r="W17">
         <v>0.46</v>
       </c>
+      <c r="X17">
+        <v>-4.58</v>
+      </c>
+      <c r="Y17">
+        <v>24.53</v>
+      </c>
+      <c r="Z17">
+        <v>-1.84</v>
+      </c>
       <c r="AC17" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2462,22 +2747,25 @@
       <c r="AG17">
         <v>-0.9724525809288025</v>
       </c>
-      <c r="AH17" t="s">
-        <v>218</v>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300400</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.12</v>
@@ -2495,7 +2783,7 @@
         <v>120308.2</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2536,8 +2824,23 @@
       <c r="W18">
         <v>-1.27</v>
       </c>
+      <c r="X18">
+        <v>2.72</v>
+      </c>
+      <c r="Y18">
+        <v>27.8</v>
+      </c>
+      <c r="Z18">
+        <v>5.54</v>
+      </c>
       <c r="AC18" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2545,22 +2848,25 @@
       <c r="AG18">
         <v>5.097378730773926</v>
       </c>
-      <c r="AH18" t="s">
-        <v>217</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300409</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>10.18</v>
@@ -2578,7 +2884,7 @@
         <v>214080.24</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2619,8 +2925,23 @@
       <c r="W19">
         <v>0.85</v>
       </c>
+      <c r="X19">
+        <v>2.92</v>
+      </c>
+      <c r="Y19">
+        <v>21.87</v>
+      </c>
+      <c r="Z19">
+        <v>5.25</v>
+      </c>
       <c r="AC19" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2628,22 +2949,25 @@
       <c r="AG19">
         <v>9.036847114562988</v>
       </c>
-      <c r="AH19" t="s">
-        <v>217</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300430</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-2.08</v>
@@ -2661,7 +2985,7 @@
         <v>93238.89</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2702,8 +3026,23 @@
       <c r="W20">
         <v>-1.46</v>
       </c>
+      <c r="X20">
+        <v>-2.24</v>
+      </c>
+      <c r="Y20">
+        <v>24.43</v>
+      </c>
+      <c r="Z20">
+        <v>1.96</v>
+      </c>
       <c r="AC20" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2711,22 +3050,25 @@
       <c r="AG20">
         <v>3.750228881835938</v>
       </c>
-      <c r="AH20" t="s">
-        <v>217</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300436</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>3.44</v>
@@ -2744,7 +3086,7 @@
         <v>231835.88</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K21">
         <v>33</v>
@@ -2785,8 +3127,23 @@
       <c r="W21">
         <v>-0.67</v>
       </c>
+      <c r="X21">
+        <v>-6.58</v>
+      </c>
+      <c r="Y21">
+        <v>188.93</v>
+      </c>
+      <c r="Z21">
+        <v>9.210000000000001</v>
+      </c>
       <c r="AC21" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2794,22 +3151,25 @@
       <c r="AG21">
         <v>12.21962738037109</v>
       </c>
-      <c r="AH21" t="s">
-        <v>217</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300455</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3.62</v>
@@ -2827,7 +3187,7 @@
         <v>101344.52</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -2868,8 +3228,23 @@
       <c r="W22">
         <v>-0.37</v>
       </c>
+      <c r="X22">
+        <v>-2.9</v>
+      </c>
+      <c r="Y22">
+        <v>19.07</v>
+      </c>
+      <c r="Z22">
+        <v>0.85</v>
+      </c>
       <c r="AC22" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2877,22 +3252,25 @@
       <c r="AG22">
         <v>4.563770294189453</v>
       </c>
-      <c r="AH22" t="s">
-        <v>217</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300486</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>15.92</v>
@@ -2910,7 +3288,7 @@
         <v>128045.02</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2951,8 +3329,23 @@
       <c r="W23">
         <v>0.2</v>
       </c>
+      <c r="X23">
+        <v>2.63</v>
+      </c>
+      <c r="Y23">
+        <v>24.35</v>
+      </c>
+      <c r="Z23">
+        <v>8.949999999999999</v>
+      </c>
       <c r="AC23" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2960,22 +3353,25 @@
       <c r="AG23">
         <v>2.079263925552368</v>
       </c>
-      <c r="AH23" t="s">
-        <v>217</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300499</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>20.02</v>
@@ -2993,7 +3389,7 @@
         <v>209540.12</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -3034,8 +3430,23 @@
       <c r="W24">
         <v>1.09</v>
       </c>
+      <c r="X24">
+        <v>6.66</v>
+      </c>
+      <c r="Y24">
+        <v>36.04</v>
+      </c>
+      <c r="Z24">
+        <v>16.48</v>
+      </c>
       <c r="AC24" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3043,22 +3454,25 @@
       <c r="AG24">
         <v>9.945449829101562</v>
       </c>
-      <c r="AH24" t="s">
-        <v>217</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300539</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>7.39</v>
@@ -3076,7 +3490,7 @@
         <v>121204.77</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -3117,8 +3531,23 @@
       <c r="W25">
         <v>-0.52</v>
       </c>
+      <c r="X25">
+        <v>7.58</v>
+      </c>
+      <c r="Y25">
+        <v>37</v>
+      </c>
+      <c r="Z25">
+        <v>13.12</v>
+      </c>
       <c r="AC25" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3126,22 +3555,25 @@
       <c r="AG25">
         <v>2.729775190353394</v>
       </c>
-      <c r="AH25" t="s">
-        <v>217</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300547</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>8.25</v>
@@ -3159,7 +3591,7 @@
         <v>295385.55</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3200,8 +3632,23 @@
       <c r="W26">
         <v>-2.35</v>
       </c>
+      <c r="X26">
+        <v>2.14</v>
+      </c>
+      <c r="Y26">
+        <v>58.58</v>
+      </c>
+      <c r="Z26">
+        <v>11.62</v>
+      </c>
       <c r="AC26" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3209,22 +3656,25 @@
       <c r="AG26">
         <v>7.77245044708252</v>
       </c>
-      <c r="AH26" t="s">
-        <v>217</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300548</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>7.66</v>
@@ -3242,7 +3692,7 @@
         <v>246583.09</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K27">
         <v>25</v>
@@ -3283,8 +3733,23 @@
       <c r="W27">
         <v>0.12</v>
       </c>
+      <c r="X27">
+        <v>1.11</v>
+      </c>
+      <c r="Y27">
+        <v>105.26</v>
+      </c>
+      <c r="Z27">
+        <v>6.33</v>
+      </c>
       <c r="AC27" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3292,22 +3757,25 @@
       <c r="AG27">
         <v>-1.991931200027466</v>
       </c>
-      <c r="AH27" t="s">
-        <v>217</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300579</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>1.24</v>
@@ -3325,7 +3793,7 @@
         <v>88478.36</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3366,8 +3834,23 @@
       <c r="W28">
         <v>0.09</v>
       </c>
+      <c r="X28">
+        <v>-1.94</v>
+      </c>
+      <c r="Y28">
+        <v>41.41</v>
+      </c>
+      <c r="Z28">
+        <v>1.74</v>
+      </c>
       <c r="AC28" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3375,22 +3858,25 @@
       <c r="AG28">
         <v>1.864125370979309</v>
       </c>
-      <c r="AH28" t="s">
-        <v>217</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300584</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.78</v>
@@ -3408,7 +3894,7 @@
         <v>114125.63</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -3449,8 +3935,23 @@
       <c r="W29">
         <v>0.84</v>
       </c>
+      <c r="X29">
+        <v>-3.25</v>
+      </c>
+      <c r="Y29">
+        <v>62</v>
+      </c>
+      <c r="Z29">
+        <v>1.13</v>
+      </c>
       <c r="AC29" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3458,22 +3959,25 @@
       <c r="AG29">
         <v>10.07048034667969</v>
       </c>
-      <c r="AH29" t="s">
-        <v>217</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300593</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.45</v>
@@ -3491,7 +3995,7 @@
         <v>97714.27</v>
       </c>
       <c r="J30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -3532,8 +4036,23 @@
       <c r="W30">
         <v>-0.24</v>
       </c>
+      <c r="X30">
+        <v>1.5</v>
+      </c>
+      <c r="Y30">
+        <v>20.53</v>
+      </c>
+      <c r="Z30">
+        <v>2.8</v>
+      </c>
       <c r="AC30" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3541,22 +4060,25 @@
       <c r="AG30">
         <v>6.451822757720947</v>
       </c>
-      <c r="AH30" t="s">
-        <v>217</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300600</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>6.29</v>
@@ -3574,7 +4096,7 @@
         <v>95222.50999999999</v>
       </c>
       <c r="J31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K31">
         <v>14</v>
@@ -3615,8 +4137,23 @@
       <c r="W31">
         <v>0.87</v>
       </c>
+      <c r="X31">
+        <v>-4.26</v>
+      </c>
+      <c r="Y31">
+        <v>23.06</v>
+      </c>
+      <c r="Z31">
+        <v>0.3</v>
+      </c>
       <c r="AC31" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3624,22 +4161,25 @@
       <c r="AG31">
         <v>5.00870418548584</v>
       </c>
-      <c r="AH31" t="s">
-        <v>217</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300609</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>13.48</v>
@@ -3657,7 +4197,7 @@
         <v>104630.85</v>
       </c>
       <c r="J32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K32">
         <v>14</v>
@@ -3698,8 +4238,23 @@
       <c r="W32">
         <v>-1.41</v>
       </c>
+      <c r="X32">
+        <v>-1.52</v>
+      </c>
+      <c r="Y32">
+        <v>60.6</v>
+      </c>
+      <c r="Z32">
+        <v>1.13</v>
+      </c>
       <c r="AC32" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3707,22 +4262,25 @@
       <c r="AG32">
         <v>7.088339328765869</v>
       </c>
-      <c r="AH32" t="s">
-        <v>217</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300620</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>15.55</v>
@@ -3740,7 +4298,7 @@
         <v>472294.25</v>
       </c>
       <c r="J33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3781,8 +4339,23 @@
       <c r="W33">
         <v>0.76</v>
       </c>
+      <c r="X33">
+        <v>2.68</v>
+      </c>
+      <c r="Y33">
+        <v>108</v>
+      </c>
+      <c r="Z33">
+        <v>13.98</v>
+      </c>
       <c r="AC33" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3790,22 +4363,25 @@
       <c r="AG33">
         <v>3.595875978469849</v>
       </c>
-      <c r="AH33" t="s">
-        <v>217</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300637</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>8.130000000000001</v>
@@ -3823,7 +4399,7 @@
         <v>104725.91</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3864,8 +4440,23 @@
       <c r="W34">
         <v>0.03</v>
       </c>
+      <c r="X34">
+        <v>-5.98</v>
+      </c>
+      <c r="Y34">
+        <v>16.3</v>
+      </c>
+      <c r="Z34">
+        <v>-4.23</v>
+      </c>
       <c r="AC34" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3873,22 +4464,25 @@
       <c r="AG34">
         <v>-1.244209289550781</v>
       </c>
-      <c r="AH34" t="s">
-        <v>217</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300644</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>4.44</v>
@@ -3906,7 +4500,7 @@
         <v>72823.85000000001</v>
       </c>
       <c r="J35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -3947,8 +4541,23 @@
       <c r="W35">
         <v>0.19</v>
       </c>
+      <c r="X35">
+        <v>-5.24</v>
+      </c>
+      <c r="Y35">
+        <v>40.51</v>
+      </c>
+      <c r="Z35">
+        <v>-0.47</v>
+      </c>
       <c r="AC35" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3956,22 +4565,25 @@
       <c r="AG35">
         <v>1.022201061248779</v>
       </c>
-      <c r="AH35" t="s">
-        <v>217</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300648</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.13</v>
@@ -3989,7 +4601,7 @@
         <v>34436.42</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K36">
         <v>13</v>
@@ -4030,8 +4642,23 @@
       <c r="W36">
         <v>-0.04</v>
       </c>
+      <c r="X36">
+        <v>2.61</v>
+      </c>
+      <c r="Y36">
+        <v>62.8</v>
+      </c>
+      <c r="Z36">
+        <v>6.44</v>
+      </c>
       <c r="AC36" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4039,22 +4666,25 @@
       <c r="AG36">
         <v>1.350005626678467</v>
       </c>
-      <c r="AH36" t="s">
-        <v>217</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300671</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.39</v>
@@ -4072,7 +4702,7 @@
         <v>73566.52</v>
       </c>
       <c r="J37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -4113,8 +4743,23 @@
       <c r="W37">
         <v>0</v>
       </c>
+      <c r="X37">
+        <v>3.64</v>
+      </c>
+      <c r="Y37">
+        <v>43.38</v>
+      </c>
+      <c r="Z37">
+        <v>5.32</v>
+      </c>
       <c r="AC37" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4122,22 +4767,25 @@
       <c r="AG37">
         <v>-3.649795293807983</v>
       </c>
-      <c r="AH37" t="s">
-        <v>217</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300683</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.73</v>
@@ -4155,7 +4803,7 @@
         <v>76117.47</v>
       </c>
       <c r="J38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K38">
         <v>21</v>
@@ -4196,8 +4844,23 @@
       <c r="W38">
         <v>0.47</v>
       </c>
+      <c r="X38">
+        <v>-4.58</v>
+      </c>
+      <c r="Y38">
+        <v>60.95</v>
+      </c>
+      <c r="Z38">
+        <v>7.19</v>
+      </c>
       <c r="AC38" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4205,22 +4868,25 @@
       <c r="AG38">
         <v>2.204655885696411</v>
       </c>
-      <c r="AH38" t="s">
-        <v>217</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300684</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>9.35</v>
@@ -4238,7 +4904,7 @@
         <v>154959.56</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K39">
         <v>14</v>
@@ -4279,8 +4945,23 @@
       <c r="W39">
         <v>0.64</v>
       </c>
+      <c r="X39">
+        <v>-2.53</v>
+      </c>
+      <c r="Y39">
+        <v>38.13</v>
+      </c>
+      <c r="Z39">
+        <v>2.23</v>
+      </c>
       <c r="AC39" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4288,22 +4969,25 @@
       <c r="AG39">
         <v>-1.912225961685181</v>
       </c>
-      <c r="AH39" t="s">
-        <v>217</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300690</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>6.05</v>
@@ -4321,7 +5005,7 @@
         <v>169367.97</v>
       </c>
       <c r="J40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4362,8 +5046,23 @@
       <c r="W40">
         <v>1.45</v>
       </c>
+      <c r="X40">
+        <v>-4.64</v>
+      </c>
+      <c r="Y40">
+        <v>40</v>
+      </c>
+      <c r="Z40">
+        <v>-2.49</v>
+      </c>
       <c r="AC40" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4371,22 +5070,25 @@
       <c r="AG40">
         <v>1.296202182769775</v>
       </c>
-      <c r="AH40" t="s">
-        <v>218</v>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300703</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.47</v>
@@ -4404,7 +5106,7 @@
         <v>46815.82</v>
       </c>
       <c r="J41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -4445,8 +5147,23 @@
       <c r="W41">
         <v>-0.1</v>
       </c>
+      <c r="X41">
+        <v>4.2</v>
+      </c>
+      <c r="Y41">
+        <v>37.08</v>
+      </c>
+      <c r="Z41">
+        <v>8.93</v>
+      </c>
       <c r="AC41" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4454,22 +5171,25 @@
       <c r="AG41">
         <v>3.579987764358521</v>
       </c>
-      <c r="AH41" t="s">
-        <v>217</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300706</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.25</v>
@@ -4487,7 +5207,7 @@
         <v>147533.77</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K42">
         <v>17</v>
@@ -4528,8 +5248,23 @@
       <c r="W42">
         <v>0.03</v>
       </c>
+      <c r="X42">
+        <v>-6.03</v>
+      </c>
+      <c r="Y42">
+        <v>50.95</v>
+      </c>
+      <c r="Z42">
+        <v>1.55</v>
+      </c>
       <c r="AC42" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4537,22 +5272,25 @@
       <c r="AG42">
         <v>35.54540634155273</v>
       </c>
-      <c r="AH42" t="s">
-        <v>217</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300727</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>19.99</v>
@@ -4570,7 +5308,7 @@
         <v>111143.51</v>
       </c>
       <c r="J43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4611,8 +5349,23 @@
       <c r="W43">
         <v>-0.09</v>
       </c>
+      <c r="X43">
+        <v>-5.41</v>
+      </c>
+      <c r="Y43">
+        <v>43.58</v>
+      </c>
+      <c r="Z43">
+        <v>-0.14</v>
+      </c>
       <c r="AC43" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4620,22 +5373,25 @@
       <c r="AG43">
         <v>27.36123275756836</v>
       </c>
-      <c r="AH43" t="s">
-        <v>217</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300730</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>19.03</v>
@@ -4653,7 +5409,7 @@
         <v>190416.03</v>
       </c>
       <c r="J44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4694,8 +5450,23 @@
       <c r="W44">
         <v>-0.87</v>
       </c>
+      <c r="X44">
+        <v>-5.32</v>
+      </c>
+      <c r="Y44">
+        <v>22.27</v>
+      </c>
+      <c r="Z44">
+        <v>5.65</v>
+      </c>
       <c r="AC44" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4703,22 +5474,25 @@
       <c r="AG44">
         <v>5.988914489746094</v>
       </c>
-      <c r="AH44" t="s">
-        <v>217</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300731</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>13.81</v>
@@ -4736,7 +5510,7 @@
         <v>165844.13</v>
       </c>
       <c r="J45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4777,8 +5551,23 @@
       <c r="W45">
         <v>-0.18</v>
       </c>
+      <c r="X45">
+        <v>-5.83</v>
+      </c>
+      <c r="Y45">
+        <v>58</v>
+      </c>
+      <c r="Z45">
+        <v>-1.44</v>
+      </c>
       <c r="AC45" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4786,22 +5575,25 @@
       <c r="AG45">
         <v>12.56199073791504</v>
       </c>
-      <c r="AH45" t="s">
-        <v>217</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300767</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -4819,7 +5611,7 @@
         <v>80873.34</v>
       </c>
       <c r="J46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4860,8 +5652,23 @@
       <c r="W46">
         <v>2.06</v>
       </c>
+      <c r="X46">
+        <v>7.25</v>
+      </c>
+      <c r="Y46">
+        <v>21.65</v>
+      </c>
+      <c r="Z46">
+        <v>9.01</v>
+      </c>
       <c r="AC46" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4869,22 +5676,25 @@
       <c r="AG46">
         <v>18.62991905212402</v>
       </c>
-      <c r="AH46" t="s">
-        <v>218</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300803</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>16.41</v>
@@ -4902,7 +5712,7 @@
         <v>1468653.98</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -4943,8 +5753,23 @@
       <c r="W47">
         <v>-0.9</v>
       </c>
+      <c r="X47">
+        <v>0.47</v>
+      </c>
+      <c r="Y47">
+        <v>129.09</v>
+      </c>
+      <c r="Z47">
+        <v>0.93</v>
+      </c>
       <c r="AC47" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4952,22 +5777,25 @@
       <c r="AG47">
         <v>9.376899719238281</v>
       </c>
-      <c r="AH47" t="s">
-        <v>217</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300806</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>8.24</v>
@@ -4985,7 +5813,7 @@
         <v>98377.27</v>
       </c>
       <c r="J48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -5026,8 +5854,23 @@
       <c r="W48">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X48">
+        <v>-3</v>
+      </c>
+      <c r="Y48">
+        <v>24.18</v>
+      </c>
+      <c r="Z48">
+        <v>2.24</v>
+      </c>
       <c r="AC48" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5035,22 +5878,25 @@
       <c r="AG48">
         <v>0.312883049249649</v>
       </c>
-      <c r="AH48" t="s">
-        <v>217</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300811</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>16.92</v>
@@ -5068,7 +5914,7 @@
         <v>209324.97</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5109,8 +5955,23 @@
       <c r="W49">
         <v>-0.21</v>
       </c>
+      <c r="X49">
+        <v>-2.51</v>
+      </c>
+      <c r="Y49">
+        <v>74.88</v>
+      </c>
+      <c r="Z49">
+        <v>-1.47</v>
+      </c>
       <c r="AC49" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5118,22 +5979,25 @@
       <c r="AG49">
         <v>-29.59463691711426</v>
       </c>
-      <c r="AH49" t="s">
-        <v>217</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300814</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>10.85</v>
@@ -5151,7 +6015,7 @@
         <v>157170.48</v>
       </c>
       <c r="J50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5192,8 +6056,23 @@
       <c r="W50">
         <v>-0.85</v>
       </c>
+      <c r="X50">
+        <v>-3.06</v>
+      </c>
+      <c r="Y50">
+        <v>50.86</v>
+      </c>
+      <c r="Z50">
+        <v>-0.02</v>
+      </c>
       <c r="AC50" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5201,22 +6080,25 @@
       <c r="AG50">
         <v>-1.264204621315002</v>
       </c>
-      <c r="AH50" t="s">
-        <v>217</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300815</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>1.21</v>
@@ -5234,7 +6116,7 @@
         <v>147175.08</v>
       </c>
       <c r="J51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -5275,8 +6157,23 @@
       <c r="W51">
         <v>-0.41</v>
       </c>
+      <c r="X51">
+        <v>-6.17</v>
+      </c>
+      <c r="Y51">
+        <v>30.55</v>
+      </c>
+      <c r="Z51">
+        <v>-0.97</v>
+      </c>
       <c r="AC51" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5284,22 +6181,25 @@
       <c r="AG51">
         <v>0.6524750590324402</v>
       </c>
-      <c r="AH51" t="s">
-        <v>217</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300816</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.49</v>
@@ -5317,7 +6217,7 @@
         <v>32732.42</v>
       </c>
       <c r="J52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5358,8 +6258,23 @@
       <c r="W52">
         <v>0.14</v>
       </c>
+      <c r="X52">
+        <v>-2.98</v>
+      </c>
+      <c r="Y52">
+        <v>42.26</v>
+      </c>
+      <c r="Z52">
+        <v>-0.31</v>
+      </c>
       <c r="AC52" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5367,22 +6282,25 @@
       <c r="AG52">
         <v>4.692525863647461</v>
       </c>
-      <c r="AH52" t="s">
-        <v>217</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300835</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>8.720000000000001</v>
@@ -5400,7 +6318,7 @@
         <v>86389.88</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K53">
         <v>20</v>
@@ -5441,8 +6359,23 @@
       <c r="W53">
         <v>0.44</v>
       </c>
+      <c r="X53">
+        <v>-2.4</v>
+      </c>
+      <c r="Y53">
+        <v>67.28</v>
+      </c>
+      <c r="Z53">
+        <v>3.03</v>
+      </c>
       <c r="AC53" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5450,22 +6383,25 @@
       <c r="AG53">
         <v>0.2013854384422302</v>
       </c>
-      <c r="AH53" t="s">
-        <v>217</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300843</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>13.98</v>
@@ -5483,7 +6419,7 @@
         <v>126247.58</v>
       </c>
       <c r="J54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5524,8 +6460,23 @@
       <c r="W54">
         <v>1.95</v>
       </c>
+      <c r="X54">
+        <v>-5.19</v>
+      </c>
+      <c r="Y54">
+        <v>50.45</v>
+      </c>
+      <c r="Z54">
+        <v>-1.46</v>
+      </c>
       <c r="AC54" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5533,22 +6484,25 @@
       <c r="AG54">
         <v>3.027386665344238</v>
       </c>
-      <c r="AH54" t="s">
-        <v>217</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300870</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-1.03</v>
@@ -5566,7 +6520,7 @@
         <v>258304.44</v>
       </c>
       <c r="J55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5607,8 +6561,23 @@
       <c r="W55">
         <v>-0.33</v>
       </c>
+      <c r="X55">
+        <v>3.52</v>
+      </c>
+      <c r="Y55">
+        <v>259.99</v>
+      </c>
+      <c r="Z55">
+        <v>5.71</v>
+      </c>
       <c r="AC55" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5616,22 +6585,25 @@
       <c r="AG55">
         <v>31.33539390563965</v>
       </c>
-      <c r="AH55" t="s">
-        <v>217</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300902</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>2.5</v>
@@ -5649,7 +6621,7 @@
         <v>46842.2</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K56">
         <v>4</v>
@@ -5690,8 +6662,23 @@
       <c r="W56">
         <v>1.75</v>
       </c>
+      <c r="X56">
+        <v>5.07</v>
+      </c>
+      <c r="Y56">
+        <v>31.88</v>
+      </c>
+      <c r="Z56">
+        <v>6.66</v>
+      </c>
       <c r="AC56" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5699,22 +6686,25 @@
       <c r="AG56">
         <v>5.46657657623291</v>
       </c>
-      <c r="AH56" t="s">
-        <v>217</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300907</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-2.28</v>
@@ -5732,7 +6722,7 @@
         <v>32417.6</v>
       </c>
       <c r="J57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5773,8 +6763,23 @@
       <c r="W57">
         <v>0.49</v>
       </c>
+      <c r="X57">
+        <v>12.37</v>
+      </c>
+      <c r="Y57">
+        <v>44.79</v>
+      </c>
+      <c r="Z57">
+        <v>17.53</v>
+      </c>
       <c r="AC57" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5782,22 +6787,25 @@
       <c r="AG57">
         <v>4.641499519348145</v>
       </c>
-      <c r="AH57" t="s">
-        <v>217</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300990</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>8.93</v>
@@ -5815,7 +6823,7 @@
         <v>61864.05</v>
       </c>
       <c r="J58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5856,8 +6864,23 @@
       <c r="W58">
         <v>-0.29</v>
       </c>
+      <c r="X58">
+        <v>1.78</v>
+      </c>
+      <c r="Y58">
+        <v>79</v>
+      </c>
+      <c r="Z58">
+        <v>3.27</v>
+      </c>
       <c r="AC58" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5865,22 +6888,25 @@
       <c r="AG58">
         <v>-2.414292335510254</v>
       </c>
-      <c r="AH58" t="s">
-        <v>217</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301007</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>2.98</v>
@@ -5898,7 +6924,7 @@
         <v>60215.35</v>
       </c>
       <c r="J59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5939,8 +6965,23 @@
       <c r="W59">
         <v>-0.26</v>
       </c>
+      <c r="X59">
+        <v>5.95</v>
+      </c>
+      <c r="Y59">
+        <v>46.33</v>
+      </c>
+      <c r="Z59">
+        <v>7.27</v>
+      </c>
       <c r="AC59" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5948,22 +6989,25 @@
       <c r="AG59">
         <v>5.653299808502197</v>
       </c>
-      <c r="AH59" t="s">
-        <v>217</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301018</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>11.31</v>
@@ -5981,7 +7025,7 @@
         <v>152186.42</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -6022,8 +7066,23 @@
       <c r="W60">
         <v>-0.03</v>
       </c>
+      <c r="X60">
+        <v>-7.21</v>
+      </c>
+      <c r="Y60">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="Z60">
+        <v>0.34</v>
+      </c>
       <c r="AC60" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -6031,22 +7090,25 @@
       <c r="AG60">
         <v>13.97542667388916</v>
       </c>
-      <c r="AH60" t="s">
-        <v>217</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301021</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>2.65</v>
@@ -6064,7 +7126,7 @@
         <v>52605.47</v>
       </c>
       <c r="J61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -6105,8 +7167,23 @@
       <c r="W61">
         <v>0.35</v>
       </c>
+      <c r="X61">
+        <v>-2.98</v>
+      </c>
+      <c r="Y61">
+        <v>37.9</v>
+      </c>
+      <c r="Z61">
+        <v>-0.21</v>
+      </c>
       <c r="AC61" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6114,22 +7191,25 @@
       <c r="AG61">
         <v>2.471927642822266</v>
       </c>
-      <c r="AH61" t="s">
-        <v>217</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301022</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-2.03</v>
@@ -6147,7 +7227,7 @@
         <v>35245.24</v>
       </c>
       <c r="J62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -6188,8 +7268,23 @@
       <c r="W62">
         <v>-0.92</v>
       </c>
+      <c r="X62">
+        <v>0.35</v>
+      </c>
+      <c r="Y62">
+        <v>46.73</v>
+      </c>
+      <c r="Z62">
+        <v>2.97</v>
+      </c>
       <c r="AC62" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6197,22 +7292,25 @@
       <c r="AG62">
         <v>3.463508367538452</v>
       </c>
-      <c r="AH62" t="s">
-        <v>217</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301038</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>0.55</v>
@@ -6230,7 +7328,7 @@
         <v>77988.17</v>
       </c>
       <c r="J63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K63">
         <v>15</v>
@@ -6271,8 +7369,23 @@
       <c r="W63">
         <v>-0.25</v>
       </c>
+      <c r="X63">
+        <v>-2.85</v>
+      </c>
+      <c r="Y63">
+        <v>37.45</v>
+      </c>
+      <c r="Z63">
+        <v>2.74</v>
+      </c>
       <c r="AC63" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6280,22 +7393,25 @@
       <c r="AG63">
         <v>2.184327363967896</v>
       </c>
-      <c r="AH63" t="s">
-        <v>217</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301069</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>5.07</v>
@@ -6313,7 +7429,7 @@
         <v>124403.64</v>
       </c>
       <c r="J64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -6354,8 +7470,23 @@
       <c r="W64">
         <v>-0.24</v>
       </c>
+      <c r="X64">
+        <v>-5.43</v>
+      </c>
+      <c r="Y64">
+        <v>25.06</v>
+      </c>
+      <c r="Z64">
+        <v>-0.95</v>
+      </c>
       <c r="AC64" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6363,22 +7494,25 @@
       <c r="AG64">
         <v>-8.574267387390137</v>
       </c>
-      <c r="AH64" t="s">
-        <v>217</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301076</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>5.72</v>
@@ -6396,7 +7530,7 @@
         <v>201263.26</v>
       </c>
       <c r="J65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K65">
         <v>9</v>
@@ -6437,8 +7571,23 @@
       <c r="W65">
         <v>-1.04</v>
       </c>
+      <c r="X65">
+        <v>-7.39</v>
+      </c>
+      <c r="Y65">
+        <v>61.58</v>
+      </c>
+      <c r="Z65">
+        <v>2.12</v>
+      </c>
       <c r="AC65" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6446,22 +7595,25 @@
       <c r="AG65">
         <v>-9.062268257141113</v>
       </c>
-      <c r="AH65" t="s">
-        <v>217</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301095</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>14</v>
@@ -6479,7 +7631,7 @@
         <v>153176.29</v>
       </c>
       <c r="J66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K66">
         <v>14</v>
@@ -6520,8 +7672,23 @@
       <c r="W66">
         <v>0.03</v>
       </c>
+      <c r="X66">
+        <v>-6.18</v>
+      </c>
+      <c r="Y66">
+        <v>93.88</v>
+      </c>
+      <c r="Z66">
+        <v>-1.18</v>
+      </c>
       <c r="AC66" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6529,22 +7696,25 @@
       <c r="AG66">
         <v>4.339554309844971</v>
       </c>
-      <c r="AH66" t="s">
-        <v>217</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301120</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>2.38</v>
@@ -6562,7 +7732,7 @@
         <v>56090.79</v>
       </c>
       <c r="J67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -6603,8 +7773,23 @@
       <c r="W67">
         <v>-0.41</v>
       </c>
+      <c r="X67">
+        <v>7.09</v>
+      </c>
+      <c r="Y67">
+        <v>18.33</v>
+      </c>
+      <c r="Z67">
+        <v>18.41</v>
+      </c>
       <c r="AC67" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6612,22 +7797,25 @@
       <c r="AG67">
         <v>1.397922992706299</v>
       </c>
-      <c r="AH67" t="s">
-        <v>217</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301123</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>19.99</v>
@@ -6645,7 +7833,7 @@
         <v>107973.09</v>
       </c>
       <c r="J68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -6686,8 +7874,23 @@
       <c r="W68">
         <v>0.22</v>
       </c>
+      <c r="X68">
+        <v>3.45</v>
+      </c>
+      <c r="Y68">
+        <v>49.09</v>
+      </c>
+      <c r="Z68">
+        <v>3.81</v>
+      </c>
       <c r="AC68" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>1</v>
@@ -6695,22 +7898,25 @@
       <c r="AG68">
         <v>7.238214015960693</v>
       </c>
-      <c r="AH68" t="s">
-        <v>218</v>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301128</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>20</v>
@@ -6728,7 +7934,7 @@
         <v>102744.45</v>
       </c>
       <c r="J69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -6769,8 +7975,23 @@
       <c r="W69">
         <v>0.55</v>
       </c>
+      <c r="X69">
+        <v>9.73</v>
+      </c>
+      <c r="Y69">
+        <v>105</v>
+      </c>
+      <c r="Z69">
+        <v>17.59</v>
+      </c>
       <c r="AC69" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6778,22 +7999,25 @@
       <c r="AG69">
         <v>11.64616203308105</v>
       </c>
-      <c r="AH69" t="s">
-        <v>218</v>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301132</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>0.68</v>
@@ -6811,7 +8035,7 @@
         <v>61240.25</v>
       </c>
       <c r="J70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K70">
         <v>6</v>
@@ -6852,8 +8076,23 @@
       <c r="W70">
         <v>0.23</v>
       </c>
+      <c r="X70">
+        <v>-0.86</v>
+      </c>
+      <c r="Y70">
+        <v>43.41</v>
+      </c>
+      <c r="Z70">
+        <v>1.21</v>
+      </c>
       <c r="AC70" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6861,22 +8100,25 @@
       <c r="AG70">
         <v>-0.4021053910255432</v>
       </c>
-      <c r="AH70" t="s">
-        <v>217</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301150</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.26</v>
@@ -6894,7 +8136,7 @@
         <v>47016.13</v>
       </c>
       <c r="J71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K71">
         <v>4</v>
@@ -6935,8 +8177,23 @@
       <c r="W71">
         <v>-0.51</v>
       </c>
+      <c r="X71">
+        <v>-2.51</v>
+      </c>
+      <c r="Y71">
+        <v>30.96</v>
+      </c>
+      <c r="Z71">
+        <v>-0.35</v>
+      </c>
       <c r="AC71" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6944,22 +8201,25 @@
       <c r="AG71">
         <v>4.6766676902771</v>
       </c>
-      <c r="AH71" t="s">
-        <v>217</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301161</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>15.93</v>
@@ -6977,7 +8237,7 @@
         <v>68337.86</v>
       </c>
       <c r="J72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K72">
         <v>11</v>
@@ -7018,8 +8278,23 @@
       <c r="W72">
         <v>-2.41</v>
       </c>
+      <c r="X72">
+        <v>1.12</v>
+      </c>
+      <c r="Y72">
+        <v>47.45</v>
+      </c>
+      <c r="Z72">
+        <v>5.82</v>
+      </c>
       <c r="AC72" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7027,22 +8302,25 @@
       <c r="AG72">
         <v>-4.005548477172852</v>
       </c>
-      <c r="AH72" t="s">
-        <v>217</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301165</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>20</v>
@@ -7060,7 +8338,7 @@
         <v>156828.17</v>
       </c>
       <c r="J73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -7101,8 +8379,23 @@
       <c r="W73">
         <v>1.18</v>
       </c>
+      <c r="X73">
+        <v>2.02</v>
+      </c>
+      <c r="Y73">
+        <v>86.66</v>
+      </c>
+      <c r="Z73">
+        <v>5.88</v>
+      </c>
       <c r="AC73" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7110,22 +8403,25 @@
       <c r="AG73">
         <v>27.6491641998291</v>
       </c>
-      <c r="AH73" t="s">
-        <v>217</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301181</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>2.13</v>
@@ -7143,7 +8439,7 @@
         <v>45724.84</v>
       </c>
       <c r="J74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7184,8 +8480,23 @@
       <c r="W74">
         <v>-0.72</v>
       </c>
+      <c r="X74">
+        <v>-6.12</v>
+      </c>
+      <c r="Y74">
+        <v>34.3</v>
+      </c>
+      <c r="Z74">
+        <v>-0.55</v>
+      </c>
       <c r="AC74" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7193,22 +8504,25 @@
       <c r="AG74">
         <v>3.198456525802612</v>
       </c>
-      <c r="AH74" t="s">
-        <v>217</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301196</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-6.38</v>
@@ -7226,7 +8540,7 @@
         <v>81467.56</v>
       </c>
       <c r="J75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7267,8 +8581,23 @@
       <c r="W75">
         <v>-0.01</v>
       </c>
+      <c r="X75">
+        <v>-3.18</v>
+      </c>
+      <c r="Y75">
+        <v>105.76</v>
+      </c>
+      <c r="Z75">
+        <v>6.18</v>
+      </c>
       <c r="AC75" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7276,22 +8605,25 @@
       <c r="AG75">
         <v>5.473295211791992</v>
       </c>
-      <c r="AH75" t="s">
-        <v>217</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301217</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>3.76</v>
@@ -7309,7 +8641,7 @@
         <v>267036.65</v>
       </c>
       <c r="J76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K76">
         <v>31</v>
@@ -7350,8 +8682,23 @@
       <c r="W76">
         <v>-0.12</v>
       </c>
+      <c r="X76">
+        <v>-3.32</v>
+      </c>
+      <c r="Y76">
+        <v>32.97</v>
+      </c>
+      <c r="Z76">
+        <v>-1.17</v>
+      </c>
       <c r="AC76" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>1</v>
@@ -7359,22 +8706,25 @@
       <c r="AG76">
         <v>-4.787673473358154</v>
       </c>
-      <c r="AH76" t="s">
-        <v>217</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301226</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>20.01</v>
@@ -7392,7 +8742,7 @@
         <v>53292.1</v>
       </c>
       <c r="J77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7433,8 +8783,23 @@
       <c r="W77">
         <v>1.66</v>
       </c>
+      <c r="X77">
+        <v>2.88</v>
+      </c>
+      <c r="Y77">
+        <v>43.18</v>
+      </c>
+      <c r="Z77">
+        <v>7.31</v>
+      </c>
       <c r="AC77" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -7442,22 +8807,25 @@
       <c r="AG77">
         <v>18.52034759521484</v>
       </c>
-      <c r="AH77" t="s">
-        <v>218</v>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301235</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>14.79</v>
@@ -7475,7 +8843,7 @@
         <v>54728.01</v>
       </c>
       <c r="J78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -7516,8 +8884,23 @@
       <c r="W78">
         <v>1.24</v>
       </c>
+      <c r="X78">
+        <v>-0.57</v>
+      </c>
+      <c r="Y78">
+        <v>34.36</v>
+      </c>
+      <c r="Z78">
+        <v>1.99</v>
+      </c>
       <c r="AC78" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7525,22 +8908,25 @@
       <c r="AG78">
         <v>3.822005033493042</v>
       </c>
-      <c r="AH78" t="s">
-        <v>217</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301251</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-0.54</v>
@@ -7558,7 +8944,7 @@
         <v>101322.94</v>
       </c>
       <c r="J79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K79">
         <v>9</v>
@@ -7599,8 +8985,23 @@
       <c r="W79">
         <v>0.26</v>
       </c>
+      <c r="X79">
+        <v>-2.87</v>
+      </c>
+      <c r="Y79">
+        <v>63.1</v>
+      </c>
+      <c r="Z79">
+        <v>1.45</v>
+      </c>
       <c r="AC79" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7608,22 +9009,25 @@
       <c r="AG79">
         <v>2.233043909072876</v>
       </c>
-      <c r="AH79" t="s">
-        <v>217</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301312</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>4.76</v>
@@ -7641,7 +9045,7 @@
         <v>38558.38</v>
       </c>
       <c r="J80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K80">
         <v>6</v>
@@ -7682,8 +9086,23 @@
       <c r="W80">
         <v>0.4</v>
       </c>
+      <c r="X80">
+        <v>-1.18</v>
+      </c>
+      <c r="Y80">
+        <v>49.97</v>
+      </c>
+      <c r="Z80">
+        <v>1.36</v>
+      </c>
       <c r="AC80" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7691,22 +9110,25 @@
       <c r="AG80">
         <v>3.449119329452515</v>
       </c>
-      <c r="AH80" t="s">
-        <v>217</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301323</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-0.16</v>
@@ -7724,7 +9146,7 @@
         <v>47657.55</v>
       </c>
       <c r="J81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K81">
         <v>5</v>
@@ -7765,8 +9187,23 @@
       <c r="W81">
         <v>0.08</v>
       </c>
+      <c r="X81">
+        <v>-2.28</v>
+      </c>
+      <c r="Y81">
+        <v>61.8</v>
+      </c>
+      <c r="Z81">
+        <v>1.1</v>
+      </c>
       <c r="AC81" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7774,22 +9211,25 @@
       <c r="AG81">
         <v>4.161935329437256</v>
       </c>
-      <c r="AH81" t="s">
-        <v>217</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301326</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>9.9</v>
@@ -7807,7 +9247,7 @@
         <v>66414.00999999999</v>
       </c>
       <c r="J82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K82">
         <v>7</v>
@@ -7848,8 +9288,23 @@
       <c r="W82">
         <v>0.35</v>
       </c>
+      <c r="X82">
+        <v>-4.07</v>
+      </c>
+      <c r="Y82">
+        <v>116.5</v>
+      </c>
+      <c r="Z82">
+        <v>4.11</v>
+      </c>
       <c r="AC82" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7857,22 +9312,25 @@
       <c r="AG82">
         <v>0.8700041770935059</v>
       </c>
-      <c r="AH82" t="s">
-        <v>217</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301357</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>7.7</v>
@@ -7890,7 +9348,7 @@
         <v>153159.09</v>
       </c>
       <c r="J83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K83">
         <v>15</v>
@@ -7931,8 +9389,23 @@
       <c r="W83">
         <v>-1.13</v>
       </c>
+      <c r="X83">
+        <v>1.24</v>
+      </c>
+      <c r="Y83">
+        <v>188</v>
+      </c>
+      <c r="Z83">
+        <v>17.49</v>
+      </c>
       <c r="AC83" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7940,22 +9413,25 @@
       <c r="AG83">
         <v>-17.66385650634766</v>
       </c>
-      <c r="AH83" t="s">
-        <v>217</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301377</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-3.59</v>
@@ -7973,7 +9449,7 @@
         <v>42192.32</v>
       </c>
       <c r="J84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K84">
         <v>6</v>
@@ -8014,8 +9490,23 @@
       <c r="W84">
         <v>0.24</v>
       </c>
+      <c r="X84">
+        <v>-4.69</v>
+      </c>
+      <c r="Y84">
+        <v>63.11</v>
+      </c>
+      <c r="Z84">
+        <v>4.37</v>
+      </c>
       <c r="AC84" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -8023,22 +9514,25 @@
       <c r="AG84">
         <v>-0.2670703530311584</v>
       </c>
-      <c r="AH84" t="s">
-        <v>217</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301389</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-1.32</v>
@@ -8056,7 +9550,7 @@
         <v>101177.72</v>
       </c>
       <c r="J85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K85">
         <v>30</v>
@@ -8097,8 +9591,23 @@
       <c r="W85">
         <v>-0.59</v>
       </c>
+      <c r="X85">
+        <v>0.19</v>
+      </c>
+      <c r="Y85">
+        <v>53.6</v>
+      </c>
+      <c r="Z85">
+        <v>2.76</v>
+      </c>
       <c r="AC85" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8106,22 +9615,25 @@
       <c r="AG85">
         <v>-2.757113218307495</v>
       </c>
-      <c r="AH85" t="s">
-        <v>217</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301397</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>6.49</v>
@@ -8139,7 +9651,7 @@
         <v>94319.45</v>
       </c>
       <c r="J86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K86">
         <v>8</v>
@@ -8180,8 +9692,23 @@
       <c r="W86">
         <v>1.14</v>
       </c>
+      <c r="X86">
+        <v>-5.62</v>
+      </c>
+      <c r="Y86">
+        <v>51.15</v>
+      </c>
+      <c r="Z86">
+        <v>3.29</v>
+      </c>
       <c r="AC86" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -8189,22 +9716,25 @@
       <c r="AG86">
         <v>5.999361515045166</v>
       </c>
-      <c r="AH86" t="s">
-        <v>218</v>
+      <c r="AH86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301398</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>8.390000000000001</v>
@@ -8222,7 +9752,7 @@
         <v>65707.58</v>
       </c>
       <c r="J87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -8263,8 +9793,23 @@
       <c r="W87">
         <v>-0.01</v>
       </c>
+      <c r="X87">
+        <v>3.03</v>
+      </c>
+      <c r="Y87">
+        <v>57.6</v>
+      </c>
+      <c r="Z87">
+        <v>8.43</v>
+      </c>
       <c r="AC87" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8272,22 +9817,25 @@
       <c r="AG87">
         <v>-0.730004608631134</v>
       </c>
-      <c r="AH87" t="s">
-        <v>217</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301486</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>7.58</v>
@@ -8305,7 +9853,7 @@
         <v>135123.6</v>
       </c>
       <c r="J88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K88">
         <v>4</v>
@@ -8346,8 +9894,23 @@
       <c r="W88">
         <v>-1.29</v>
       </c>
+      <c r="X88">
+        <v>-5.17</v>
+      </c>
+      <c r="Y88">
+        <v>94</v>
+      </c>
+      <c r="Z88">
+        <v>-2.22</v>
+      </c>
       <c r="AC88" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8355,22 +9918,25 @@
       <c r="AG88">
         <v>10.64141750335693</v>
       </c>
-      <c r="AH88" t="s">
-        <v>217</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301489</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>3.45</v>
@@ -8388,7 +9954,7 @@
         <v>130488.19</v>
       </c>
       <c r="J89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K89">
         <v>13</v>
@@ -8429,8 +9995,23 @@
       <c r="W89">
         <v>0.46</v>
       </c>
+      <c r="X89">
+        <v>6.54</v>
+      </c>
+      <c r="Y89">
+        <v>185</v>
+      </c>
+      <c r="Z89">
+        <v>8.82</v>
+      </c>
       <c r="AC89" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8438,22 +10019,25 @@
       <c r="AG89">
         <v>2.39418363571167</v>
       </c>
-      <c r="AH89" t="s">
-        <v>217</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>301511</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-1.87</v>
@@ -8471,7 +10055,7 @@
         <v>205740.1</v>
       </c>
       <c r="J90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K90">
         <v>40</v>
@@ -8512,8 +10096,23 @@
       <c r="W90">
         <v>-0.01</v>
       </c>
+      <c r="X90">
+        <v>2.49</v>
+      </c>
+      <c r="Y90">
+        <v>41.16</v>
+      </c>
+      <c r="Z90">
+        <v>2.93</v>
+      </c>
       <c r="AC90" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8521,22 +10120,25 @@
       <c r="AG90">
         <v>7.762129306793213</v>
       </c>
-      <c r="AH90" t="s">
-        <v>217</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>301526</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>11.29</v>
@@ -8554,7 +10156,7 @@
         <v>260062.34</v>
       </c>
       <c r="J91" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K91">
         <v>8</v>
@@ -8595,8 +10197,23 @@
       <c r="W91">
         <v>-3.01</v>
       </c>
+      <c r="X91">
+        <v>-6.28</v>
+      </c>
+      <c r="Y91">
+        <v>7.1</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
       <c r="AC91" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>1</v>
@@ -8604,22 +10221,25 @@
       <c r="AG91">
         <v>15.98375797271729</v>
       </c>
-      <c r="AH91" t="s">
-        <v>217</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>301626</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>9.66</v>
@@ -8637,7 +10257,7 @@
         <v>67328.99000000001</v>
       </c>
       <c r="J92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8678,8 +10298,23 @@
       <c r="W92">
         <v>1.14</v>
       </c>
+      <c r="X92">
+        <v>-1.08</v>
+      </c>
+      <c r="Y92">
+        <v>159.83</v>
+      </c>
+      <c r="Z92">
+        <v>0.9</v>
+      </c>
       <c r="AC92" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8687,22 +10322,25 @@
       <c r="AG92">
         <v>5.629494190216064</v>
       </c>
-      <c r="AH92" t="s">
-        <v>217</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688035</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>15.49</v>
@@ -8720,7 +10358,7 @@
         <v>69472.52</v>
       </c>
       <c r="J93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -8761,8 +10399,23 @@
       <c r="W93">
         <v>0.99</v>
       </c>
+      <c r="X93">
+        <v>5.9</v>
+      </c>
+      <c r="Y93">
+        <v>65.3</v>
+      </c>
+      <c r="Z93">
+        <v>15.27</v>
+      </c>
       <c r="AC93" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8770,22 +10423,25 @@
       <c r="AG93">
         <v>2.808269500732422</v>
       </c>
-      <c r="AH93" t="s">
-        <v>217</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688048</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>7.62</v>
@@ -8803,7 +10459,7 @@
         <v>81839.16</v>
       </c>
       <c r="J94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K94">
         <v>11</v>
@@ -8844,8 +10500,23 @@
       <c r="W94">
         <v>-0.63</v>
       </c>
+      <c r="X94">
+        <v>-1.86</v>
+      </c>
+      <c r="Y94">
+        <v>77.95999999999999</v>
+      </c>
+      <c r="Z94">
+        <v>1.06</v>
+      </c>
       <c r="AC94" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8853,22 +10524,25 @@
       <c r="AG94">
         <v>1.128980040550232</v>
       </c>
-      <c r="AH94" t="s">
-        <v>217</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688108</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>19.35</v>
@@ -8886,7 +10560,7 @@
         <v>240365.41</v>
       </c>
       <c r="J95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -8927,8 +10601,23 @@
       <c r="W95">
         <v>0.18</v>
       </c>
+      <c r="X95">
+        <v>-2.56</v>
+      </c>
+      <c r="Y95">
+        <v>47</v>
+      </c>
+      <c r="Z95">
+        <v>13.91</v>
+      </c>
       <c r="AC95" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -8936,22 +10625,25 @@
       <c r="AG95">
         <v>-1.096117973327637</v>
       </c>
-      <c r="AH95" t="s">
-        <v>218</v>
+      <c r="AH95">
+        <v>1</v>
+      </c>
+      <c r="AI95">
+        <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688110</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>4.1</v>
@@ -8969,7 +10661,7 @@
         <v>374020.84</v>
       </c>
       <c r="J96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K96">
         <v>15</v>
@@ -9010,8 +10702,23 @@
       <c r="W96">
         <v>-0.44</v>
       </c>
+      <c r="X96">
+        <v>-1.81</v>
+      </c>
+      <c r="Y96">
+        <v>103.98</v>
+      </c>
+      <c r="Z96">
+        <v>2.79</v>
+      </c>
       <c r="AC96" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -9019,22 +10726,25 @@
       <c r="AG96">
         <v>58.68274307250977</v>
       </c>
-      <c r="AH96" t="s">
-        <v>217</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688146</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-3.43</v>
@@ -9052,7 +10762,7 @@
         <v>82703.78</v>
       </c>
       <c r="J97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -9093,8 +10803,23 @@
       <c r="W97">
         <v>-0.85</v>
       </c>
+      <c r="X97">
+        <v>-2.13</v>
+      </c>
+      <c r="Y97">
+        <v>41.51</v>
+      </c>
+      <c r="Z97">
+        <v>2.49</v>
+      </c>
       <c r="AC97" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9102,22 +10827,25 @@
       <c r="AG97">
         <v>1.38673460483551</v>
       </c>
-      <c r="AH97" t="s">
-        <v>217</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688147</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>10</v>
@@ -9135,7 +10863,7 @@
         <v>63940.99</v>
       </c>
       <c r="J98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -9176,8 +10904,23 @@
       <c r="W98">
         <v>0.88</v>
       </c>
+      <c r="X98">
+        <v>-1.71</v>
+      </c>
+      <c r="Y98">
+        <v>38.38</v>
+      </c>
+      <c r="Z98">
+        <v>1.13</v>
+      </c>
       <c r="AC98" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9185,22 +10928,25 @@
       <c r="AG98">
         <v>2.282076120376587</v>
       </c>
-      <c r="AH98" t="s">
-        <v>217</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688167</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>14.3</v>
@@ -9218,7 +10964,7 @@
         <v>91165.36</v>
       </c>
       <c r="J99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K99">
         <v>9</v>
@@ -9259,8 +11005,23 @@
       <c r="W99">
         <v>0.17</v>
       </c>
+      <c r="X99">
+        <v>3.83</v>
+      </c>
+      <c r="Y99">
+        <v>122.58</v>
+      </c>
+      <c r="Z99">
+        <v>7.72</v>
+      </c>
       <c r="AC99" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD99">
+        <v>1</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
       </c>
       <c r="AF99">
         <v>1</v>
@@ -9268,22 +11029,25 @@
       <c r="AG99">
         <v>5.902247905731201</v>
       </c>
-      <c r="AH99" t="s">
-        <v>218</v>
+      <c r="AH99">
+        <v>1</v>
+      </c>
+      <c r="AI99">
+        <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688195</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>19.99</v>
@@ -9301,7 +11065,7 @@
         <v>86923.19</v>
       </c>
       <c r="J100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -9342,8 +11106,23 @@
       <c r="W100">
         <v>1.33</v>
       </c>
+      <c r="X100">
+        <v>4.22</v>
+      </c>
+      <c r="Y100">
+        <v>75.58</v>
+      </c>
+      <c r="Z100">
+        <v>16.82</v>
+      </c>
       <c r="AC100" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9351,22 +11130,25 @@
       <c r="AG100">
         <v>12.81156921386719</v>
       </c>
-      <c r="AH100" t="s">
-        <v>217</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688199</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>-1.93</v>
@@ -9384,7 +11166,7 @@
         <v>63689.34</v>
       </c>
       <c r="J101" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K101">
         <v>4</v>
@@ -9425,8 +11207,23 @@
       <c r="W101">
         <v>0.28</v>
       </c>
+      <c r="X101">
+        <v>-3.13</v>
+      </c>
+      <c r="Y101">
+        <v>30.8</v>
+      </c>
+      <c r="Z101">
+        <v>2.56</v>
+      </c>
       <c r="AC101" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9434,22 +11231,25 @@
       <c r="AG101">
         <v>-6.673940181732178</v>
       </c>
-      <c r="AH101" t="s">
-        <v>217</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688202</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>1.45</v>
@@ -9467,7 +11267,7 @@
         <v>51304.12</v>
       </c>
       <c r="J102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K102">
         <v>4</v>
@@ -9508,8 +11308,23 @@
       <c r="W102">
         <v>-0.37</v>
       </c>
+      <c r="X102">
+        <v>-3.7</v>
+      </c>
+      <c r="Y102">
+        <v>70.39</v>
+      </c>
+      <c r="Z102">
+        <v>5.64</v>
+      </c>
       <c r="AC102" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9517,22 +11332,25 @@
       <c r="AG102">
         <v>4.046053409576416</v>
       </c>
-      <c r="AH102" t="s">
-        <v>217</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688270</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>2.8</v>
@@ -9550,7 +11368,7 @@
         <v>122102.73</v>
       </c>
       <c r="J103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K103">
         <v>4</v>
@@ -9591,8 +11409,23 @@
       <c r="W103">
         <v>-0.06</v>
       </c>
+      <c r="X103">
+        <v>5.01</v>
+      </c>
+      <c r="Y103">
+        <v>73.31</v>
+      </c>
+      <c r="Z103">
+        <v>5.71</v>
+      </c>
       <c r="AC103" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9600,22 +11433,25 @@
       <c r="AG103">
         <v>8.574435234069824</v>
       </c>
-      <c r="AH103" t="s">
-        <v>217</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688273</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>-1.48</v>
@@ -9633,7 +11469,7 @@
         <v>24321.39</v>
       </c>
       <c r="J104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K104">
         <v>5</v>
@@ -9674,8 +11510,23 @@
       <c r="W104">
         <v>-1.54</v>
       </c>
+      <c r="X104">
+        <v>-0.78</v>
+      </c>
+      <c r="Y104">
+        <v>49.4</v>
+      </c>
+      <c r="Z104">
+        <v>4.71</v>
+      </c>
       <c r="AC104" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9683,22 +11534,25 @@
       <c r="AG104">
         <v>2.747533082962036</v>
       </c>
-      <c r="AH104" t="s">
-        <v>217</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688291</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>9.300000000000001</v>
@@ -9716,7 +11570,7 @@
         <v>37391.67</v>
       </c>
       <c r="J105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K105">
         <v>3</v>
@@ -9757,8 +11611,23 @@
       <c r="W105">
         <v>2.29</v>
       </c>
+      <c r="X105">
+        <v>-4.78</v>
+      </c>
+      <c r="Y105">
+        <v>41.11</v>
+      </c>
+      <c r="Z105">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="AC105" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9766,22 +11635,25 @@
       <c r="AG105">
         <v>4.232938766479492</v>
       </c>
-      <c r="AH105" t="s">
-        <v>217</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688313</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>16.22</v>
@@ -9799,7 +11671,7 @@
         <v>395459.81</v>
       </c>
       <c r="J106" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K106">
         <v>5</v>
@@ -9840,8 +11712,23 @@
       <c r="W106">
         <v>-0.82</v>
       </c>
+      <c r="X106">
+        <v>-1.5</v>
+      </c>
+      <c r="Y106">
+        <v>67.17</v>
+      </c>
+      <c r="Z106">
+        <v>3.02</v>
+      </c>
       <c r="AC106" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>1</v>
@@ -9849,22 +11736,25 @@
       <c r="AG106">
         <v>6.812934875488281</v>
       </c>
-      <c r="AH106" t="s">
-        <v>217</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688321</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>-4.31</v>
@@ -9882,7 +11772,7 @@
         <v>177458.37</v>
       </c>
       <c r="J107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -9923,8 +11813,23 @@
       <c r="W107">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X107">
+        <v>-4.87</v>
+      </c>
+      <c r="Y107">
+        <v>41.8</v>
+      </c>
+      <c r="Z107">
+        <v>1.65</v>
+      </c>
       <c r="AC107" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9932,22 +11837,25 @@
       <c r="AG107">
         <v>2.422079563140869</v>
       </c>
-      <c r="AH107" t="s">
-        <v>217</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688379</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>14.86</v>
@@ -9965,7 +11873,7 @@
         <v>64551.44</v>
       </c>
       <c r="J108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K108">
         <v>7</v>
@@ -10006,8 +11914,23 @@
       <c r="W108">
         <v>0.02</v>
       </c>
+      <c r="X108">
+        <v>-1.35</v>
+      </c>
+      <c r="Y108">
+        <v>67.53</v>
+      </c>
+      <c r="Z108">
+        <v>-1.16</v>
+      </c>
       <c r="AC108" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -10015,22 +11938,25 @@
       <c r="AG108">
         <v>8.881166458129883</v>
       </c>
-      <c r="AH108" t="s">
-        <v>217</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688401</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>-0.51</v>
@@ -10048,7 +11974,7 @@
         <v>38109.01</v>
       </c>
       <c r="J109" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -10089,8 +12015,23 @@
       <c r="W109">
         <v>0.08</v>
       </c>
+      <c r="X109">
+        <v>-2.66</v>
+      </c>
+      <c r="Y109">
+        <v>45.01</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
       <c r="AC109" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10098,22 +12039,25 @@
       <c r="AG109">
         <v>1.480698704719543</v>
       </c>
-      <c r="AH109" t="s">
-        <v>217</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688448</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>14.2</v>
@@ -10131,7 +12075,7 @@
         <v>68472.45</v>
       </c>
       <c r="J110" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -10172,8 +12116,23 @@
       <c r="W110">
         <v>2.06</v>
       </c>
+      <c r="X110">
+        <v>0.25</v>
+      </c>
+      <c r="Y110">
+        <v>69.16</v>
+      </c>
+      <c r="Z110">
+        <v>8.06</v>
+      </c>
       <c r="AC110" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>1</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10181,22 +12140,25 @@
       <c r="AG110">
         <v>-2.422773122787476</v>
       </c>
-      <c r="AH110" t="s">
-        <v>217</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688498</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>4.13</v>
@@ -10214,7 +12176,7 @@
         <v>100250.02</v>
       </c>
       <c r="J111" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K111">
         <v>5</v>
@@ -10255,8 +12217,23 @@
       <c r="W111">
         <v>0.36</v>
       </c>
+      <c r="X111">
+        <v>-0.72</v>
+      </c>
+      <c r="Y111">
+        <v>292.02</v>
+      </c>
+      <c r="Z111">
+        <v>5.47</v>
+      </c>
       <c r="AC111" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10264,22 +12241,25 @@
       <c r="AG111">
         <v>1.682499408721924</v>
       </c>
-      <c r="AH111" t="s">
-        <v>217</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>688499</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112">
         <v>4.55</v>
@@ -10297,7 +12277,7 @@
         <v>70794.36</v>
       </c>
       <c r="J112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K112">
         <v>45</v>
@@ -10338,8 +12318,23 @@
       <c r="W112">
         <v>-0.31</v>
       </c>
+      <c r="X112">
+        <v>-0.19</v>
+      </c>
+      <c r="Y112">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="Z112">
+        <v>3.5</v>
+      </c>
       <c r="AC112" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -10347,22 +12342,25 @@
       <c r="AG112">
         <v>9.004226684570312</v>
       </c>
-      <c r="AH112" t="s">
-        <v>217</v>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>688502</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>8.6</v>
@@ -10380,7 +12378,7 @@
         <v>62579.61</v>
       </c>
       <c r="J113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K113">
         <v>16</v>
@@ -10421,8 +12419,23 @@
       <c r="W113">
         <v>0.55</v>
       </c>
+      <c r="X113">
+        <v>-2.11</v>
+      </c>
+      <c r="Y113">
+        <v>395</v>
+      </c>
+      <c r="Z113">
+        <v>2.9</v>
+      </c>
       <c r="AC113" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -10430,22 +12443,25 @@
       <c r="AG113">
         <v>-0.2459643334150314</v>
       </c>
-      <c r="AH113" t="s">
-        <v>217</v>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>688584</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>0.26</v>
@@ -10463,7 +12479,7 @@
         <v>67588.78999999999</v>
       </c>
       <c r="J114" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K114">
         <v>4</v>
@@ -10504,8 +12520,23 @@
       <c r="W114">
         <v>-0.17</v>
       </c>
+      <c r="X114">
+        <v>-7.72</v>
+      </c>
+      <c r="Y114">
+        <v>26.83</v>
+      </c>
+      <c r="Z114">
+        <v>-0.11</v>
+      </c>
       <c r="AC114" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -10513,22 +12544,25 @@
       <c r="AG114">
         <v>-0.8568400740623474</v>
       </c>
-      <c r="AH114" t="s">
-        <v>217</v>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>688591</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>-0.49</v>
@@ -10546,7 +12580,7 @@
         <v>68190.67</v>
       </c>
       <c r="J115" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K115">
         <v>4</v>
@@ -10587,8 +12621,23 @@
       <c r="W115">
         <v>0.35</v>
       </c>
+      <c r="X115">
+        <v>-6.67</v>
+      </c>
+      <c r="Y115">
+        <v>54</v>
+      </c>
+      <c r="Z115">
+        <v>1.91</v>
+      </c>
       <c r="AC115" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -10596,22 +12645,25 @@
       <c r="AG115">
         <v>3.650778532028198</v>
       </c>
-      <c r="AH115" t="s">
-        <v>217</v>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>688603</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116">
         <v>20</v>
@@ -10629,7 +12681,7 @@
         <v>61456.84</v>
       </c>
       <c r="J116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K116">
         <v>4</v>
@@ -10670,8 +12722,23 @@
       <c r="W116">
         <v>0.35</v>
       </c>
+      <c r="X116">
+        <v>-2.75</v>
+      </c>
+      <c r="Y116">
+        <v>106.45</v>
+      </c>
+      <c r="Z116">
+        <v>10</v>
+      </c>
       <c r="AC116" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD116">
+        <v>1</v>
+      </c>
+      <c r="AE116">
+        <v>1</v>
       </c>
       <c r="AF116">
         <v>1</v>
@@ -10679,22 +12746,25 @@
       <c r="AG116">
         <v>13.9817476272583</v>
       </c>
-      <c r="AH116" t="s">
-        <v>218</v>
+      <c r="AH116">
+        <v>1</v>
+      </c>
+      <c r="AI116">
+        <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>688661</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117">
         <v>-0.35</v>
@@ -10712,7 +12782,7 @@
         <v>66913.84</v>
       </c>
       <c r="J117" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -10753,8 +12823,23 @@
       <c r="W117">
         <v>0.29</v>
       </c>
+      <c r="X117">
+        <v>-2.89</v>
+      </c>
+      <c r="Y117">
+        <v>48.36</v>
+      </c>
+      <c r="Z117">
+        <v>-0.7</v>
+      </c>
       <c r="AC117" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -10762,22 +12847,25 @@
       <c r="AG117">
         <v>-7.247180461883545</v>
       </c>
-      <c r="AH117" t="s">
-        <v>217</v>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>688668</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118">
         <v>5.3</v>
@@ -10795,7 +12883,7 @@
         <v>84126</v>
       </c>
       <c r="J118" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K118">
         <v>23</v>
@@ -10836,8 +12924,23 @@
       <c r="W118">
         <v>0.31</v>
       </c>
+      <c r="X118">
+        <v>-6.15</v>
+      </c>
+      <c r="Y118">
+        <v>122.88</v>
+      </c>
+      <c r="Z118">
+        <v>6.09</v>
+      </c>
       <c r="AC118" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -10845,22 +12948,25 @@
       <c r="AG118">
         <v>0.8655543327331543</v>
       </c>
-      <c r="AH118" t="s">
-        <v>217</v>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>688716</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119">
         <v>12.74</v>
@@ -10878,7 +12984,7 @@
         <v>107106.02</v>
       </c>
       <c r="J119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K119">
         <v>3</v>
@@ -10919,8 +13025,23 @@
       <c r="W119">
         <v>-0.39</v>
       </c>
+      <c r="X119">
+        <v>-5.25</v>
+      </c>
+      <c r="Y119">
+        <v>56.68</v>
+      </c>
+      <c r="Z119">
+        <v>0.43</v>
+      </c>
       <c r="AC119" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -10928,22 +13049,25 @@
       <c r="AG119">
         <v>1.816981911659241</v>
       </c>
-      <c r="AH119" t="s">
-        <v>217</v>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C120">
         <v>688733</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120">
         <v>-5.96</v>
@@ -10961,7 +13085,7 @@
         <v>87565.5</v>
       </c>
       <c r="J120" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K120">
         <v>3</v>
@@ -11002,8 +13126,23 @@
       <c r="W120">
         <v>-0.95</v>
       </c>
+      <c r="X120">
+        <v>-6.62</v>
+      </c>
+      <c r="Y120">
+        <v>31</v>
+      </c>
+      <c r="Z120">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="AC120" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -11011,22 +13150,25 @@
       <c r="AG120">
         <v>10.72585678100586</v>
       </c>
-      <c r="AH120" t="s">
-        <v>217</v>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C121">
         <v>688767</v>
       </c>
       <c r="D121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E121">
         <v>3.97</v>
@@ -11044,7 +13186,7 @@
         <v>59124.63</v>
       </c>
       <c r="J121" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11085,8 +13227,23 @@
       <c r="W121">
         <v>-0.32</v>
       </c>
+      <c r="X121">
+        <v>-2.66</v>
+      </c>
+      <c r="Y121">
+        <v>48.96</v>
+      </c>
+      <c r="Z121">
+        <v>6.18</v>
+      </c>
       <c r="AC121" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -11094,22 +13251,25 @@
       <c r="AG121">
         <v>-3.839298725128174</v>
       </c>
-      <c r="AH121" t="s">
-        <v>217</v>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122">
         <v>688800</v>
       </c>
       <c r="D122" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E122">
         <v>-0.86</v>
@@ -11127,7 +13287,7 @@
         <v>163688.05</v>
       </c>
       <c r="J122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K122">
         <v>10</v>
@@ -11168,8 +13328,23 @@
       <c r="W122">
         <v>-0.15</v>
       </c>
+      <c r="X122">
+        <v>3.64</v>
+      </c>
+      <c r="Y122">
+        <v>85</v>
+      </c>
+      <c r="Z122">
+        <v>10.2</v>
+      </c>
       <c r="AC122" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>1</v>
       </c>
       <c r="AF122">
         <v>0</v>
@@ -11177,8 +13352,11 @@
       <c r="AG122">
         <v>1.547133564949036</v>
       </c>
-      <c r="AH122" t="s">
-        <v>217</v>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
